--- a/src/main/resources/data/events/Regular_Events.xlsx
+++ b/src/main/resources/data/events/Regular_Events.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibs\Desktop\bluePlanet\backend\src\main\resources\data\events\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibs\Desktop\sbluePlanet\backend\src\main\resources\data\events\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4396ED-EDB1-473B-B440-A229D9E6ED82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C3EC9B-40BD-4196-9E27-EE29E6640A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -291,9 +291,6 @@
     <t>오늘 아침, 내 손에 들린 건 물티슈였습니다. 두 번째 성분은 ‘마이크로화이버’였고, 나는 그것을 찢지 않고 주머니에 넣었습니다.\n\n^하수처리장 미세플라스틱 누출률^은 법적 허용치를 넘었습니다. 사람은 ‘닦아낸다’고 생각하지만, 생명은 ‘씻겨 나간다’고 기억합니다.</t>
   </si>
   <si>
-    <t>밤 10시. 내 집 마당의 말벌통은 텅 비어 있었습니다. 서부 지역 ^수분매개곤충 서식지 밀도^가 30년 만에 최저치를 기록했습니다.\n\n무기는 쏘는 침이 아니라, 오지 않는 날개입니다.</t>
-  </si>
-  <si>
     <t>전지환 중소기업 CEO</t>
   </si>
   <si>
@@ -18472,6 +18469,529 @@
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>밤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>집</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마당의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>말벌통은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>텅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있었습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지역</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수분매개곤충</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서식지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>밀도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>년</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최저치를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기록했습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.\n\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무기는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쏘는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>침이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아니라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>않는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>날개입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>.</t>
     </r>
@@ -18625,7 +19145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -18649,6 +19169,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18867,8 +19390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -18891,7 +19414,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -18947,7 +19470,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -18961,7 +19484,7 @@
         <v>66</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -18975,7 +19498,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -18989,7 +19512,7 @@
         <v>62</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -19003,7 +19526,7 @@
         <v>66</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -19017,7 +19540,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -19031,7 +19554,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -19045,7 +19568,7 @@
         <v>18</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -19059,7 +19582,7 @@
         <v>67</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -19073,7 +19596,7 @@
         <v>68</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -19129,7 +19652,7 @@
         <v>68</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -19157,7 +19680,7 @@
         <v>24</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -19171,7 +19694,7 @@
         <v>68</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -19185,7 +19708,7 @@
         <v>73</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -19213,7 +19736,7 @@
         <v>76</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -19241,7 +19764,7 @@
         <v>78</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -19297,7 +19820,7 @@
         <v>33</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -19315,66 +19838,66 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A32" s="2">
+      <c r="A32" s="10">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>40</v>
+      <c r="B32" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A33" s="2">
+      <c r="A33" s="10">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>84</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A34" s="2">
+      <c r="A34" s="10">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A35" s="2">
+      <c r="A35" s="10">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>85</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A36" s="2">
+      <c r="A36" s="10">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -19385,10 +19908,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A37" s="2">
+      <c r="A37" s="10">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -19399,59 +19922,59 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A38" s="2">
+      <c r="A38" s="10">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A39" s="2">
+      <c r="A39" s="10">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>88</v>
+      <c r="D39" s="8" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A40" s="2">
+      <c r="A40" s="10">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A41" s="2">
+      <c r="A41" s="10">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>51</v>
+      <c r="B41" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -19462,10 +19985,10 @@
         <v>52</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -19476,10 +19999,10 @@
         <v>53</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -19490,10 +20013,10 @@
         <v>54</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -19504,10 +20027,10 @@
         <v>55</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -19518,10 +20041,10 @@
         <v>56</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -19532,10 +20055,10 @@
         <v>57</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -19546,10 +20069,10 @@
         <v>58</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -19560,10 +20083,10 @@
         <v>59</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -19574,10 +20097,10 @@
         <v>60</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="16.5" customHeight="1" thickBot="1">
@@ -19588,10 +20111,10 @@
         <v>61</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="16.5" customHeight="1"/>

--- a/src/main/resources/data/events/Regular_Events.xlsx
+++ b/src/main/resources/data/events/Regular_Events.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibs\Desktop\sbluePlanet\backend\src\main\resources\data\events\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\gitProject\blueplanet\backend\src\main\resources\data\events\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6847E7-9D65-4320-88DF-F201902C15DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A06ED9-BF4A-4CFF-A213-A1016E2204EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19146,7 +19146,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -19154,7 +19154,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -19388,10 +19388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -20117,955 +20117,6 @@
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="53" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="54" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="55" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="56" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="57" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="58" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="59" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="60" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="61" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="62" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="63" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="64" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="65" ht="16.5" customHeight="1"/>
-    <row r="66" ht="16.5" customHeight="1"/>
-    <row r="67" ht="16.5" customHeight="1"/>
-    <row r="68" ht="16.5" customHeight="1"/>
-    <row r="69" ht="16.5" customHeight="1"/>
-    <row r="70" ht="16.5" customHeight="1"/>
-    <row r="71" ht="16.5" customHeight="1"/>
-    <row r="72" ht="16.5" customHeight="1"/>
-    <row r="73" ht="16.5" customHeight="1"/>
-    <row r="74" ht="16.5" customHeight="1"/>
-    <row r="75" ht="16.5" customHeight="1"/>
-    <row r="76" ht="16.5" customHeight="1"/>
-    <row r="77" ht="16.5" customHeight="1"/>
-    <row r="78" ht="16.5" customHeight="1"/>
-    <row r="79" ht="16.5" customHeight="1"/>
-    <row r="80" ht="16.5" customHeight="1"/>
-    <row r="81" ht="16.5" customHeight="1"/>
-    <row r="82" ht="16.5" customHeight="1"/>
-    <row r="83" ht="16.5" customHeight="1"/>
-    <row r="84" ht="16.5" customHeight="1"/>
-    <row r="85" ht="16.5" customHeight="1"/>
-    <row r="86" ht="16.5" customHeight="1"/>
-    <row r="87" ht="16.5" customHeight="1"/>
-    <row r="88" ht="16.5" customHeight="1"/>
-    <row r="89" ht="16.5" customHeight="1"/>
-    <row r="90" ht="16.5" customHeight="1"/>
-    <row r="91" ht="16.5" customHeight="1"/>
-    <row r="92" ht="16.5" customHeight="1"/>
-    <row r="93" ht="16.5" customHeight="1"/>
-    <row r="94" ht="16.5" customHeight="1"/>
-    <row r="95" ht="16.5" customHeight="1"/>
-    <row r="96" ht="16.5" customHeight="1"/>
-    <row r="97" ht="16.5" customHeight="1"/>
-    <row r="98" ht="16.5" customHeight="1"/>
-    <row r="99" ht="16.5" customHeight="1"/>
-    <row r="100" ht="16.5" customHeight="1"/>
-    <row r="101" ht="16.5" customHeight="1"/>
-    <row r="102" ht="16.5" customHeight="1"/>
-    <row r="103" ht="16.5" customHeight="1"/>
-    <row r="104" ht="16.5" customHeight="1"/>
-    <row r="105" ht="16.5" customHeight="1"/>
-    <row r="106" ht="16.5" customHeight="1"/>
-    <row r="107" ht="16.5" customHeight="1"/>
-    <row r="108" ht="16.5" customHeight="1"/>
-    <row r="109" ht="16.5" customHeight="1"/>
-    <row r="110" ht="16.5" customHeight="1"/>
-    <row r="111" ht="16.5" customHeight="1"/>
-    <row r="112" ht="16.5" customHeight="1"/>
-    <row r="113" ht="16.5" customHeight="1"/>
-    <row r="114" ht="16.5" customHeight="1"/>
-    <row r="115" ht="16.5" customHeight="1"/>
-    <row r="116" ht="16.5" customHeight="1"/>
-    <row r="117" ht="16.5" customHeight="1"/>
-    <row r="118" ht="16.5" customHeight="1"/>
-    <row r="119" ht="16.5" customHeight="1"/>
-    <row r="120" ht="16.5" customHeight="1"/>
-    <row r="121" ht="16.5" customHeight="1"/>
-    <row r="122" ht="16.5" customHeight="1"/>
-    <row r="123" ht="16.5" customHeight="1"/>
-    <row r="124" ht="16.5" customHeight="1"/>
-    <row r="125" ht="16.5" customHeight="1"/>
-    <row r="126" ht="16.5" customHeight="1"/>
-    <row r="127" ht="16.5" customHeight="1"/>
-    <row r="128" ht="16.5" customHeight="1"/>
-    <row r="129" ht="16.5" customHeight="1"/>
-    <row r="130" ht="16.5" customHeight="1"/>
-    <row r="131" ht="16.5" customHeight="1"/>
-    <row r="132" ht="16.5" customHeight="1"/>
-    <row r="133" ht="16.5" customHeight="1"/>
-    <row r="134" ht="16.5" customHeight="1"/>
-    <row r="135" ht="16.5" customHeight="1"/>
-    <row r="136" ht="16.5" customHeight="1"/>
-    <row r="137" ht="16.5" customHeight="1"/>
-    <row r="138" ht="16.5" customHeight="1"/>
-    <row r="139" ht="16.5" customHeight="1"/>
-    <row r="140" ht="16.5" customHeight="1"/>
-    <row r="141" ht="16.5" customHeight="1"/>
-    <row r="142" ht="16.5" customHeight="1"/>
-    <row r="143" ht="16.5" customHeight="1"/>
-    <row r="144" ht="16.5" customHeight="1"/>
-    <row r="145" ht="16.5" customHeight="1"/>
-    <row r="146" ht="16.5" customHeight="1"/>
-    <row r="147" ht="16.5" customHeight="1"/>
-    <row r="148" ht="16.5" customHeight="1"/>
-    <row r="149" ht="16.5" customHeight="1"/>
-    <row r="150" ht="16.5" customHeight="1"/>
-    <row r="151" ht="16.5" customHeight="1"/>
-    <row r="152" ht="16.5" customHeight="1"/>
-    <row r="153" ht="16.5" customHeight="1"/>
-    <row r="154" ht="16.5" customHeight="1"/>
-    <row r="155" ht="16.5" customHeight="1"/>
-    <row r="156" ht="16.5" customHeight="1"/>
-    <row r="157" ht="16.5" customHeight="1"/>
-    <row r="158" ht="16.5" customHeight="1"/>
-    <row r="159" ht="16.5" customHeight="1"/>
-    <row r="160" ht="16.5" customHeight="1"/>
-    <row r="161" ht="16.5" customHeight="1"/>
-    <row r="162" ht="16.5" customHeight="1"/>
-    <row r="163" ht="16.5" customHeight="1"/>
-    <row r="164" ht="16.5" customHeight="1"/>
-    <row r="165" ht="16.5" customHeight="1"/>
-    <row r="166" ht="16.5" customHeight="1"/>
-    <row r="167" ht="16.5" customHeight="1"/>
-    <row r="168" ht="16.5" customHeight="1"/>
-    <row r="169" ht="16.5" customHeight="1"/>
-    <row r="170" ht="16.5" customHeight="1"/>
-    <row r="171" ht="16.5" customHeight="1"/>
-    <row r="172" ht="16.5" customHeight="1"/>
-    <row r="173" ht="16.5" customHeight="1"/>
-    <row r="174" ht="16.5" customHeight="1"/>
-    <row r="175" ht="16.5" customHeight="1"/>
-    <row r="176" ht="16.5" customHeight="1"/>
-    <row r="177" ht="16.5" customHeight="1"/>
-    <row r="178" ht="16.5" customHeight="1"/>
-    <row r="179" ht="16.5" customHeight="1"/>
-    <row r="180" ht="16.5" customHeight="1"/>
-    <row r="181" ht="16.5" customHeight="1"/>
-    <row r="182" ht="16.5" customHeight="1"/>
-    <row r="183" ht="16.5" customHeight="1"/>
-    <row r="184" ht="16.5" customHeight="1"/>
-    <row r="185" ht="16.5" customHeight="1"/>
-    <row r="186" ht="16.5" customHeight="1"/>
-    <row r="187" ht="16.5" customHeight="1"/>
-    <row r="188" ht="16.5" customHeight="1"/>
-    <row r="189" ht="16.5" customHeight="1"/>
-    <row r="190" ht="16.5" customHeight="1"/>
-    <row r="191" ht="16.5" customHeight="1"/>
-    <row r="192" ht="16.5" customHeight="1"/>
-    <row r="193" ht="16.5" customHeight="1"/>
-    <row r="194" ht="16.5" customHeight="1"/>
-    <row r="195" ht="16.5" customHeight="1"/>
-    <row r="196" ht="16.5" customHeight="1"/>
-    <row r="197" ht="16.5" customHeight="1"/>
-    <row r="198" ht="16.5" customHeight="1"/>
-    <row r="199" ht="16.5" customHeight="1"/>
-    <row r="200" ht="16.5" customHeight="1"/>
-    <row r="201" ht="16.5" customHeight="1"/>
-    <row r="202" ht="16.5" customHeight="1"/>
-    <row r="203" ht="16.5" customHeight="1"/>
-    <row r="204" ht="16.5" customHeight="1"/>
-    <row r="205" ht="16.5" customHeight="1"/>
-    <row r="206" ht="16.5" customHeight="1"/>
-    <row r="207" ht="16.5" customHeight="1"/>
-    <row r="208" ht="16.5" customHeight="1"/>
-    <row r="209" ht="16.5" customHeight="1"/>
-    <row r="210" ht="16.5" customHeight="1"/>
-    <row r="211" ht="16.5" customHeight="1"/>
-    <row r="212" ht="16.5" customHeight="1"/>
-    <row r="213" ht="16.5" customHeight="1"/>
-    <row r="214" ht="16.5" customHeight="1"/>
-    <row r="215" ht="16.5" customHeight="1"/>
-    <row r="216" ht="16.5" customHeight="1"/>
-    <row r="217" ht="16.5" customHeight="1"/>
-    <row r="218" ht="16.5" customHeight="1"/>
-    <row r="219" ht="16.5" customHeight="1"/>
-    <row r="220" ht="16.5" customHeight="1"/>
-    <row r="221" ht="16.5" customHeight="1"/>
-    <row r="222" ht="16.5" customHeight="1"/>
-    <row r="223" ht="16.5" customHeight="1"/>
-    <row r="224" ht="16.5" customHeight="1"/>
-    <row r="225" ht="16.5" customHeight="1"/>
-    <row r="226" ht="16.5" customHeight="1"/>
-    <row r="227" ht="16.5" customHeight="1"/>
-    <row r="228" ht="16.5" customHeight="1"/>
-    <row r="229" ht="16.5" customHeight="1"/>
-    <row r="230" ht="16.5" customHeight="1"/>
-    <row r="231" ht="16.5" customHeight="1"/>
-    <row r="232" ht="16.5" customHeight="1"/>
-    <row r="233" ht="16.5" customHeight="1"/>
-    <row r="234" ht="16.5" customHeight="1"/>
-    <row r="235" ht="16.5" customHeight="1"/>
-    <row r="236" ht="16.5" customHeight="1"/>
-    <row r="237" ht="16.5" customHeight="1"/>
-    <row r="238" ht="16.5" customHeight="1"/>
-    <row r="239" ht="16.5" customHeight="1"/>
-    <row r="240" ht="16.5" customHeight="1"/>
-    <row r="241" ht="16.5" customHeight="1"/>
-    <row r="242" ht="16.5" customHeight="1"/>
-    <row r="243" ht="16.5" customHeight="1"/>
-    <row r="244" ht="16.5" customHeight="1"/>
-    <row r="245" ht="16.5" customHeight="1"/>
-    <row r="246" ht="16.5" customHeight="1"/>
-    <row r="247" ht="16.5" customHeight="1"/>
-    <row r="248" ht="16.5" customHeight="1"/>
-    <row r="249" ht="16.5" customHeight="1"/>
-    <row r="250" ht="16.5" customHeight="1"/>
-    <row r="251" ht="16.5" customHeight="1"/>
-    <row r="252" ht="16.5" customHeight="1"/>
-    <row r="253" ht="16.5" customHeight="1"/>
-    <row r="254" ht="16.5" customHeight="1"/>
-    <row r="255" ht="16.5" customHeight="1"/>
-    <row r="256" ht="16.5" customHeight="1"/>
-    <row r="257" ht="16.5" customHeight="1"/>
-    <row r="258" ht="16.5" customHeight="1"/>
-    <row r="259" ht="16.5" customHeight="1"/>
-    <row r="260" ht="16.5" customHeight="1"/>
-    <row r="261" ht="16.5" customHeight="1"/>
-    <row r="262" ht="16.5" customHeight="1"/>
-    <row r="263" ht="16.5" customHeight="1"/>
-    <row r="264" ht="16.5" customHeight="1"/>
-    <row r="265" ht="16.5" customHeight="1"/>
-    <row r="266" ht="16.5" customHeight="1"/>
-    <row r="267" ht="16.5" customHeight="1"/>
-    <row r="268" ht="16.5" customHeight="1"/>
-    <row r="269" ht="16.5" customHeight="1"/>
-    <row r="270" ht="16.5" customHeight="1"/>
-    <row r="271" ht="16.5" customHeight="1"/>
-    <row r="272" ht="16.5" customHeight="1"/>
-    <row r="273" ht="16.5" customHeight="1"/>
-    <row r="274" ht="16.5" customHeight="1"/>
-    <row r="275" ht="16.5" customHeight="1"/>
-    <row r="276" ht="16.5" customHeight="1"/>
-    <row r="277" ht="16.5" customHeight="1"/>
-    <row r="278" ht="16.5" customHeight="1"/>
-    <row r="279" ht="16.5" customHeight="1"/>
-    <row r="280" ht="16.5" customHeight="1"/>
-    <row r="281" ht="16.5" customHeight="1"/>
-    <row r="282" ht="16.5" customHeight="1"/>
-    <row r="283" ht="16.5" customHeight="1"/>
-    <row r="284" ht="16.5" customHeight="1"/>
-    <row r="285" ht="16.5" customHeight="1"/>
-    <row r="286" ht="16.5" customHeight="1"/>
-    <row r="287" ht="16.5" customHeight="1"/>
-    <row r="288" ht="16.5" customHeight="1"/>
-    <row r="289" ht="16.5" customHeight="1"/>
-    <row r="290" ht="16.5" customHeight="1"/>
-    <row r="291" ht="16.5" customHeight="1"/>
-    <row r="292" ht="16.5" customHeight="1"/>
-    <row r="293" ht="16.5" customHeight="1"/>
-    <row r="294" ht="16.5" customHeight="1"/>
-    <row r="295" ht="16.5" customHeight="1"/>
-    <row r="296" ht="16.5" customHeight="1"/>
-    <row r="297" ht="16.5" customHeight="1"/>
-    <row r="298" ht="16.5" customHeight="1"/>
-    <row r="299" ht="16.5" customHeight="1"/>
-    <row r="300" ht="16.5" customHeight="1"/>
-    <row r="301" ht="16.5" customHeight="1"/>
-    <row r="302" ht="16.5" customHeight="1"/>
-    <row r="303" ht="16.5" customHeight="1"/>
-    <row r="304" ht="16.5" customHeight="1"/>
-    <row r="305" ht="16.5" customHeight="1"/>
-    <row r="306" ht="16.5" customHeight="1"/>
-    <row r="307" ht="16.5" customHeight="1"/>
-    <row r="308" ht="16.5" customHeight="1"/>
-    <row r="309" ht="16.5" customHeight="1"/>
-    <row r="310" ht="16.5" customHeight="1"/>
-    <row r="311" ht="16.5" customHeight="1"/>
-    <row r="312" ht="16.5" customHeight="1"/>
-    <row r="313" ht="16.5" customHeight="1"/>
-    <row r="314" ht="16.5" customHeight="1"/>
-    <row r="315" ht="16.5" customHeight="1"/>
-    <row r="316" ht="16.5" customHeight="1"/>
-    <row r="317" ht="16.5" customHeight="1"/>
-    <row r="318" ht="16.5" customHeight="1"/>
-    <row r="319" ht="16.5" customHeight="1"/>
-    <row r="320" ht="16.5" customHeight="1"/>
-    <row r="321" ht="16.5" customHeight="1"/>
-    <row r="322" ht="16.5" customHeight="1"/>
-    <row r="323" ht="16.5" customHeight="1"/>
-    <row r="324" ht="16.5" customHeight="1"/>
-    <row r="325" ht="16.5" customHeight="1"/>
-    <row r="326" ht="16.5" customHeight="1"/>
-    <row r="327" ht="16.5" customHeight="1"/>
-    <row r="328" ht="16.5" customHeight="1"/>
-    <row r="329" ht="16.5" customHeight="1"/>
-    <row r="330" ht="16.5" customHeight="1"/>
-    <row r="331" ht="16.5" customHeight="1"/>
-    <row r="332" ht="16.5" customHeight="1"/>
-    <row r="333" ht="16.5" customHeight="1"/>
-    <row r="334" ht="16.5" customHeight="1"/>
-    <row r="335" ht="16.5" customHeight="1"/>
-    <row r="336" ht="16.5" customHeight="1"/>
-    <row r="337" ht="16.5" customHeight="1"/>
-    <row r="338" ht="16.5" customHeight="1"/>
-    <row r="339" ht="16.5" customHeight="1"/>
-    <row r="340" ht="16.5" customHeight="1"/>
-    <row r="341" ht="16.5" customHeight="1"/>
-    <row r="342" ht="16.5" customHeight="1"/>
-    <row r="343" ht="16.5" customHeight="1"/>
-    <row r="344" ht="16.5" customHeight="1"/>
-    <row r="345" ht="16.5" customHeight="1"/>
-    <row r="346" ht="16.5" customHeight="1"/>
-    <row r="347" ht="16.5" customHeight="1"/>
-    <row r="348" ht="16.5" customHeight="1"/>
-    <row r="349" ht="16.5" customHeight="1"/>
-    <row r="350" ht="16.5" customHeight="1"/>
-    <row r="351" ht="16.5" customHeight="1"/>
-    <row r="352" ht="16.5" customHeight="1"/>
-    <row r="353" ht="16.5" customHeight="1"/>
-    <row r="354" ht="16.5" customHeight="1"/>
-    <row r="355" ht="16.5" customHeight="1"/>
-    <row r="356" ht="16.5" customHeight="1"/>
-    <row r="357" ht="16.5" customHeight="1"/>
-    <row r="358" ht="16.5" customHeight="1"/>
-    <row r="359" ht="16.5" customHeight="1"/>
-    <row r="360" ht="16.5" customHeight="1"/>
-    <row r="361" ht="16.5" customHeight="1"/>
-    <row r="362" ht="16.5" customHeight="1"/>
-    <row r="363" ht="16.5" customHeight="1"/>
-    <row r="364" ht="16.5" customHeight="1"/>
-    <row r="365" ht="16.5" customHeight="1"/>
-    <row r="366" ht="16.5" customHeight="1"/>
-    <row r="367" ht="16.5" customHeight="1"/>
-    <row r="368" ht="16.5" customHeight="1"/>
-    <row r="369" ht="16.5" customHeight="1"/>
-    <row r="370" ht="16.5" customHeight="1"/>
-    <row r="371" ht="16.5" customHeight="1"/>
-    <row r="372" ht="16.5" customHeight="1"/>
-    <row r="373" ht="16.5" customHeight="1"/>
-    <row r="374" ht="16.5" customHeight="1"/>
-    <row r="375" ht="16.5" customHeight="1"/>
-    <row r="376" ht="16.5" customHeight="1"/>
-    <row r="377" ht="16.5" customHeight="1"/>
-    <row r="378" ht="16.5" customHeight="1"/>
-    <row r="379" ht="16.5" customHeight="1"/>
-    <row r="380" ht="16.5" customHeight="1"/>
-    <row r="381" ht="16.5" customHeight="1"/>
-    <row r="382" ht="16.5" customHeight="1"/>
-    <row r="383" ht="16.5" customHeight="1"/>
-    <row r="384" ht="16.5" customHeight="1"/>
-    <row r="385" ht="16.5" customHeight="1"/>
-    <row r="386" ht="16.5" customHeight="1"/>
-    <row r="387" ht="16.5" customHeight="1"/>
-    <row r="388" ht="16.5" customHeight="1"/>
-    <row r="389" ht="16.5" customHeight="1"/>
-    <row r="390" ht="16.5" customHeight="1"/>
-    <row r="391" ht="16.5" customHeight="1"/>
-    <row r="392" ht="16.5" customHeight="1"/>
-    <row r="393" ht="16.5" customHeight="1"/>
-    <row r="394" ht="16.5" customHeight="1"/>
-    <row r="395" ht="16.5" customHeight="1"/>
-    <row r="396" ht="16.5" customHeight="1"/>
-    <row r="397" ht="16.5" customHeight="1"/>
-    <row r="398" ht="16.5" customHeight="1"/>
-    <row r="399" ht="16.5" customHeight="1"/>
-    <row r="400" ht="16.5" customHeight="1"/>
-    <row r="401" ht="16.5" customHeight="1"/>
-    <row r="402" ht="16.5" customHeight="1"/>
-    <row r="403" ht="16.5" customHeight="1"/>
-    <row r="404" ht="16.5" customHeight="1"/>
-    <row r="405" ht="16.5" customHeight="1"/>
-    <row r="406" ht="16.5" customHeight="1"/>
-    <row r="407" ht="16.5" customHeight="1"/>
-    <row r="408" ht="16.5" customHeight="1"/>
-    <row r="409" ht="16.5" customHeight="1"/>
-    <row r="410" ht="16.5" customHeight="1"/>
-    <row r="411" ht="16.5" customHeight="1"/>
-    <row r="412" ht="16.5" customHeight="1"/>
-    <row r="413" ht="16.5" customHeight="1"/>
-    <row r="414" ht="16.5" customHeight="1"/>
-    <row r="415" ht="16.5" customHeight="1"/>
-    <row r="416" ht="16.5" customHeight="1"/>
-    <row r="417" ht="16.5" customHeight="1"/>
-    <row r="418" ht="16.5" customHeight="1"/>
-    <row r="419" ht="16.5" customHeight="1"/>
-    <row r="420" ht="16.5" customHeight="1"/>
-    <row r="421" ht="16.5" customHeight="1"/>
-    <row r="422" ht="16.5" customHeight="1"/>
-    <row r="423" ht="16.5" customHeight="1"/>
-    <row r="424" ht="16.5" customHeight="1"/>
-    <row r="425" ht="16.5" customHeight="1"/>
-    <row r="426" ht="16.5" customHeight="1"/>
-    <row r="427" ht="16.5" customHeight="1"/>
-    <row r="428" ht="16.5" customHeight="1"/>
-    <row r="429" ht="16.5" customHeight="1"/>
-    <row r="430" ht="16.5" customHeight="1"/>
-    <row r="431" ht="16.5" customHeight="1"/>
-    <row r="432" ht="16.5" customHeight="1"/>
-    <row r="433" ht="16.5" customHeight="1"/>
-    <row r="434" ht="16.5" customHeight="1"/>
-    <row r="435" ht="16.5" customHeight="1"/>
-    <row r="436" ht="16.5" customHeight="1"/>
-    <row r="437" ht="16.5" customHeight="1"/>
-    <row r="438" ht="16.5" customHeight="1"/>
-    <row r="439" ht="16.5" customHeight="1"/>
-    <row r="440" ht="16.5" customHeight="1"/>
-    <row r="441" ht="16.5" customHeight="1"/>
-    <row r="442" ht="16.5" customHeight="1"/>
-    <row r="443" ht="16.5" customHeight="1"/>
-    <row r="444" ht="16.5" customHeight="1"/>
-    <row r="445" ht="16.5" customHeight="1"/>
-    <row r="446" ht="16.5" customHeight="1"/>
-    <row r="447" ht="16.5" customHeight="1"/>
-    <row r="448" ht="16.5" customHeight="1"/>
-    <row r="449" ht="16.5" customHeight="1"/>
-    <row r="450" ht="16.5" customHeight="1"/>
-    <row r="451" ht="16.5" customHeight="1"/>
-    <row r="452" ht="16.5" customHeight="1"/>
-    <row r="453" ht="16.5" customHeight="1"/>
-    <row r="454" ht="16.5" customHeight="1"/>
-    <row r="455" ht="16.5" customHeight="1"/>
-    <row r="456" ht="16.5" customHeight="1"/>
-    <row r="457" ht="16.5" customHeight="1"/>
-    <row r="458" ht="16.5" customHeight="1"/>
-    <row r="459" ht="16.5" customHeight="1"/>
-    <row r="460" ht="16.5" customHeight="1"/>
-    <row r="461" ht="16.5" customHeight="1"/>
-    <row r="462" ht="16.5" customHeight="1"/>
-    <row r="463" ht="16.5" customHeight="1"/>
-    <row r="464" ht="16.5" customHeight="1"/>
-    <row r="465" ht="16.5" customHeight="1"/>
-    <row r="466" ht="16.5" customHeight="1"/>
-    <row r="467" ht="16.5" customHeight="1"/>
-    <row r="468" ht="16.5" customHeight="1"/>
-    <row r="469" ht="16.5" customHeight="1"/>
-    <row r="470" ht="16.5" customHeight="1"/>
-    <row r="471" ht="16.5" customHeight="1"/>
-    <row r="472" ht="16.5" customHeight="1"/>
-    <row r="473" ht="16.5" customHeight="1"/>
-    <row r="474" ht="16.5" customHeight="1"/>
-    <row r="475" ht="16.5" customHeight="1"/>
-    <row r="476" ht="16.5" customHeight="1"/>
-    <row r="477" ht="16.5" customHeight="1"/>
-    <row r="478" ht="16.5" customHeight="1"/>
-    <row r="479" ht="16.5" customHeight="1"/>
-    <row r="480" ht="16.5" customHeight="1"/>
-    <row r="481" ht="16.5" customHeight="1"/>
-    <row r="482" ht="16.5" customHeight="1"/>
-    <row r="483" ht="16.5" customHeight="1"/>
-    <row r="484" ht="16.5" customHeight="1"/>
-    <row r="485" ht="16.5" customHeight="1"/>
-    <row r="486" ht="16.5" customHeight="1"/>
-    <row r="487" ht="16.5" customHeight="1"/>
-    <row r="488" ht="16.5" customHeight="1"/>
-    <row r="489" ht="16.5" customHeight="1"/>
-    <row r="490" ht="16.5" customHeight="1"/>
-    <row r="491" ht="16.5" customHeight="1"/>
-    <row r="492" ht="16.5" customHeight="1"/>
-    <row r="493" ht="16.5" customHeight="1"/>
-    <row r="494" ht="16.5" customHeight="1"/>
-    <row r="495" ht="16.5" customHeight="1"/>
-    <row r="496" ht="16.5" customHeight="1"/>
-    <row r="497" ht="16.5" customHeight="1"/>
-    <row r="498" ht="16.5" customHeight="1"/>
-    <row r="499" ht="16.5" customHeight="1"/>
-    <row r="500" ht="16.5" customHeight="1"/>
-    <row r="501" ht="16.5" customHeight="1"/>
-    <row r="502" ht="16.5" customHeight="1"/>
-    <row r="503" ht="16.5" customHeight="1"/>
-    <row r="504" ht="16.5" customHeight="1"/>
-    <row r="505" ht="16.5" customHeight="1"/>
-    <row r="506" ht="16.5" customHeight="1"/>
-    <row r="507" ht="16.5" customHeight="1"/>
-    <row r="508" ht="16.5" customHeight="1"/>
-    <row r="509" ht="16.5" customHeight="1"/>
-    <row r="510" ht="16.5" customHeight="1"/>
-    <row r="511" ht="16.5" customHeight="1"/>
-    <row r="512" ht="16.5" customHeight="1"/>
-    <row r="513" ht="16.5" customHeight="1"/>
-    <row r="514" ht="16.5" customHeight="1"/>
-    <row r="515" ht="16.5" customHeight="1"/>
-    <row r="516" ht="16.5" customHeight="1"/>
-    <row r="517" ht="16.5" customHeight="1"/>
-    <row r="518" ht="16.5" customHeight="1"/>
-    <row r="519" ht="16.5" customHeight="1"/>
-    <row r="520" ht="16.5" customHeight="1"/>
-    <row r="521" ht="16.5" customHeight="1"/>
-    <row r="522" ht="16.5" customHeight="1"/>
-    <row r="523" ht="16.5" customHeight="1"/>
-    <row r="524" ht="16.5" customHeight="1"/>
-    <row r="525" ht="16.5" customHeight="1"/>
-    <row r="526" ht="16.5" customHeight="1"/>
-    <row r="527" ht="16.5" customHeight="1"/>
-    <row r="528" ht="16.5" customHeight="1"/>
-    <row r="529" ht="16.5" customHeight="1"/>
-    <row r="530" ht="16.5" customHeight="1"/>
-    <row r="531" ht="16.5" customHeight="1"/>
-    <row r="532" ht="16.5" customHeight="1"/>
-    <row r="533" ht="16.5" customHeight="1"/>
-    <row r="534" ht="16.5" customHeight="1"/>
-    <row r="535" ht="16.5" customHeight="1"/>
-    <row r="536" ht="16.5" customHeight="1"/>
-    <row r="537" ht="16.5" customHeight="1"/>
-    <row r="538" ht="16.5" customHeight="1"/>
-    <row r="539" ht="16.5" customHeight="1"/>
-    <row r="540" ht="16.5" customHeight="1"/>
-    <row r="541" ht="16.5" customHeight="1"/>
-    <row r="542" ht="16.5" customHeight="1"/>
-    <row r="543" ht="16.5" customHeight="1"/>
-    <row r="544" ht="16.5" customHeight="1"/>
-    <row r="545" ht="16.5" customHeight="1"/>
-    <row r="546" ht="16.5" customHeight="1"/>
-    <row r="547" ht="16.5" customHeight="1"/>
-    <row r="548" ht="16.5" customHeight="1"/>
-    <row r="549" ht="16.5" customHeight="1"/>
-    <row r="550" ht="16.5" customHeight="1"/>
-    <row r="551" ht="16.5" customHeight="1"/>
-    <row r="552" ht="16.5" customHeight="1"/>
-    <row r="553" ht="16.5" customHeight="1"/>
-    <row r="554" ht="16.5" customHeight="1"/>
-    <row r="555" ht="16.5" customHeight="1"/>
-    <row r="556" ht="16.5" customHeight="1"/>
-    <row r="557" ht="16.5" customHeight="1"/>
-    <row r="558" ht="16.5" customHeight="1"/>
-    <row r="559" ht="16.5" customHeight="1"/>
-    <row r="560" ht="16.5" customHeight="1"/>
-    <row r="561" ht="16.5" customHeight="1"/>
-    <row r="562" ht="16.5" customHeight="1"/>
-    <row r="563" ht="16.5" customHeight="1"/>
-    <row r="564" ht="16.5" customHeight="1"/>
-    <row r="565" ht="16.5" customHeight="1"/>
-    <row r="566" ht="16.5" customHeight="1"/>
-    <row r="567" ht="16.5" customHeight="1"/>
-    <row r="568" ht="16.5" customHeight="1"/>
-    <row r="569" ht="16.5" customHeight="1"/>
-    <row r="570" ht="16.5" customHeight="1"/>
-    <row r="571" ht="16.5" customHeight="1"/>
-    <row r="572" ht="16.5" customHeight="1"/>
-    <row r="573" ht="16.5" customHeight="1"/>
-    <row r="574" ht="16.5" customHeight="1"/>
-    <row r="575" ht="16.5" customHeight="1"/>
-    <row r="576" ht="16.5" customHeight="1"/>
-    <row r="577" ht="16.5" customHeight="1"/>
-    <row r="578" ht="16.5" customHeight="1"/>
-    <row r="579" ht="16.5" customHeight="1"/>
-    <row r="580" ht="16.5" customHeight="1"/>
-    <row r="581" ht="16.5" customHeight="1"/>
-    <row r="582" ht="16.5" customHeight="1"/>
-    <row r="583" ht="16.5" customHeight="1"/>
-    <row r="584" ht="16.5" customHeight="1"/>
-    <row r="585" ht="16.5" customHeight="1"/>
-    <row r="586" ht="16.5" customHeight="1"/>
-    <row r="587" ht="16.5" customHeight="1"/>
-    <row r="588" ht="16.5" customHeight="1"/>
-    <row r="589" ht="16.5" customHeight="1"/>
-    <row r="590" ht="16.5" customHeight="1"/>
-    <row r="591" ht="16.5" customHeight="1"/>
-    <row r="592" ht="16.5" customHeight="1"/>
-    <row r="593" ht="16.5" customHeight="1"/>
-    <row r="594" ht="16.5" customHeight="1"/>
-    <row r="595" ht="16.5" customHeight="1"/>
-    <row r="596" ht="16.5" customHeight="1"/>
-    <row r="597" ht="16.5" customHeight="1"/>
-    <row r="598" ht="16.5" customHeight="1"/>
-    <row r="599" ht="16.5" customHeight="1"/>
-    <row r="600" ht="16.5" customHeight="1"/>
-    <row r="601" ht="16.5" customHeight="1"/>
-    <row r="602" ht="16.5" customHeight="1"/>
-    <row r="603" ht="16.5" customHeight="1"/>
-    <row r="604" ht="16.5" customHeight="1"/>
-    <row r="605" ht="16.5" customHeight="1"/>
-    <row r="606" ht="16.5" customHeight="1"/>
-    <row r="607" ht="16.5" customHeight="1"/>
-    <row r="608" ht="16.5" customHeight="1"/>
-    <row r="609" ht="16.5" customHeight="1"/>
-    <row r="610" ht="16.5" customHeight="1"/>
-    <row r="611" ht="16.5" customHeight="1"/>
-    <row r="612" ht="16.5" customHeight="1"/>
-    <row r="613" ht="16.5" customHeight="1"/>
-    <row r="614" ht="16.5" customHeight="1"/>
-    <row r="615" ht="16.5" customHeight="1"/>
-    <row r="616" ht="16.5" customHeight="1"/>
-    <row r="617" ht="16.5" customHeight="1"/>
-    <row r="618" ht="16.5" customHeight="1"/>
-    <row r="619" ht="16.5" customHeight="1"/>
-    <row r="620" ht="16.5" customHeight="1"/>
-    <row r="621" ht="16.5" customHeight="1"/>
-    <row r="622" ht="16.5" customHeight="1"/>
-    <row r="623" ht="16.5" customHeight="1"/>
-    <row r="624" ht="16.5" customHeight="1"/>
-    <row r="625" ht="16.5" customHeight="1"/>
-    <row r="626" ht="16.5" customHeight="1"/>
-    <row r="627" ht="16.5" customHeight="1"/>
-    <row r="628" ht="16.5" customHeight="1"/>
-    <row r="629" ht="16.5" customHeight="1"/>
-    <row r="630" ht="16.5" customHeight="1"/>
-    <row r="631" ht="16.5" customHeight="1"/>
-    <row r="632" ht="16.5" customHeight="1"/>
-    <row r="633" ht="16.5" customHeight="1"/>
-    <row r="634" ht="16.5" customHeight="1"/>
-    <row r="635" ht="16.5" customHeight="1"/>
-    <row r="636" ht="16.5" customHeight="1"/>
-    <row r="637" ht="16.5" customHeight="1"/>
-    <row r="638" ht="16.5" customHeight="1"/>
-    <row r="639" ht="16.5" customHeight="1"/>
-    <row r="640" ht="16.5" customHeight="1"/>
-    <row r="641" ht="16.5" customHeight="1"/>
-    <row r="642" ht="16.5" customHeight="1"/>
-    <row r="643" ht="16.5" customHeight="1"/>
-    <row r="644" ht="16.5" customHeight="1"/>
-    <row r="645" ht="16.5" customHeight="1"/>
-    <row r="646" ht="16.5" customHeight="1"/>
-    <row r="647" ht="16.5" customHeight="1"/>
-    <row r="648" ht="16.5" customHeight="1"/>
-    <row r="649" ht="16.5" customHeight="1"/>
-    <row r="650" ht="16.5" customHeight="1"/>
-    <row r="651" ht="16.5" customHeight="1"/>
-    <row r="652" ht="16.5" customHeight="1"/>
-    <row r="653" ht="16.5" customHeight="1"/>
-    <row r="654" ht="16.5" customHeight="1"/>
-    <row r="655" ht="16.5" customHeight="1"/>
-    <row r="656" ht="16.5" customHeight="1"/>
-    <row r="657" ht="16.5" customHeight="1"/>
-    <row r="658" ht="16.5" customHeight="1"/>
-    <row r="659" ht="16.5" customHeight="1"/>
-    <row r="660" ht="16.5" customHeight="1"/>
-    <row r="661" ht="16.5" customHeight="1"/>
-    <row r="662" ht="16.5" customHeight="1"/>
-    <row r="663" ht="16.5" customHeight="1"/>
-    <row r="664" ht="16.5" customHeight="1"/>
-    <row r="665" ht="16.5" customHeight="1"/>
-    <row r="666" ht="16.5" customHeight="1"/>
-    <row r="667" ht="16.5" customHeight="1"/>
-    <row r="668" ht="16.5" customHeight="1"/>
-    <row r="669" ht="16.5" customHeight="1"/>
-    <row r="670" ht="16.5" customHeight="1"/>
-    <row r="671" ht="16.5" customHeight="1"/>
-    <row r="672" ht="16.5" customHeight="1"/>
-    <row r="673" ht="16.5" customHeight="1"/>
-    <row r="674" ht="16.5" customHeight="1"/>
-    <row r="675" ht="16.5" customHeight="1"/>
-    <row r="676" ht="16.5" customHeight="1"/>
-    <row r="677" ht="16.5" customHeight="1"/>
-    <row r="678" ht="16.5" customHeight="1"/>
-    <row r="679" ht="16.5" customHeight="1"/>
-    <row r="680" ht="16.5" customHeight="1"/>
-    <row r="681" ht="16.5" customHeight="1"/>
-    <row r="682" ht="16.5" customHeight="1"/>
-    <row r="683" ht="16.5" customHeight="1"/>
-    <row r="684" ht="16.5" customHeight="1"/>
-    <row r="685" ht="16.5" customHeight="1"/>
-    <row r="686" ht="16.5" customHeight="1"/>
-    <row r="687" ht="16.5" customHeight="1"/>
-    <row r="688" ht="16.5" customHeight="1"/>
-    <row r="689" ht="16.5" customHeight="1"/>
-    <row r="690" ht="16.5" customHeight="1"/>
-    <row r="691" ht="16.5" customHeight="1"/>
-    <row r="692" ht="16.5" customHeight="1"/>
-    <row r="693" ht="16.5" customHeight="1"/>
-    <row r="694" ht="16.5" customHeight="1"/>
-    <row r="695" ht="16.5" customHeight="1"/>
-    <row r="696" ht="16.5" customHeight="1"/>
-    <row r="697" ht="16.5" customHeight="1"/>
-    <row r="698" ht="16.5" customHeight="1"/>
-    <row r="699" ht="16.5" customHeight="1"/>
-    <row r="700" ht="16.5" customHeight="1"/>
-    <row r="701" ht="16.5" customHeight="1"/>
-    <row r="702" ht="16.5" customHeight="1"/>
-    <row r="703" ht="16.5" customHeight="1"/>
-    <row r="704" ht="16.5" customHeight="1"/>
-    <row r="705" ht="16.5" customHeight="1"/>
-    <row r="706" ht="16.5" customHeight="1"/>
-    <row r="707" ht="16.5" customHeight="1"/>
-    <row r="708" ht="16.5" customHeight="1"/>
-    <row r="709" ht="16.5" customHeight="1"/>
-    <row r="710" ht="16.5" customHeight="1"/>
-    <row r="711" ht="16.5" customHeight="1"/>
-    <row r="712" ht="16.5" customHeight="1"/>
-    <row r="713" ht="16.5" customHeight="1"/>
-    <row r="714" ht="16.5" customHeight="1"/>
-    <row r="715" ht="16.5" customHeight="1"/>
-    <row r="716" ht="16.5" customHeight="1"/>
-    <row r="717" ht="16.5" customHeight="1"/>
-    <row r="718" ht="16.5" customHeight="1"/>
-    <row r="719" ht="16.5" customHeight="1"/>
-    <row r="720" ht="16.5" customHeight="1"/>
-    <row r="721" ht="16.5" customHeight="1"/>
-    <row r="722" ht="16.5" customHeight="1"/>
-    <row r="723" ht="16.5" customHeight="1"/>
-    <row r="724" ht="16.5" customHeight="1"/>
-    <row r="725" ht="16.5" customHeight="1"/>
-    <row r="726" ht="16.5" customHeight="1"/>
-    <row r="727" ht="16.5" customHeight="1"/>
-    <row r="728" ht="16.5" customHeight="1"/>
-    <row r="729" ht="16.5" customHeight="1"/>
-    <row r="730" ht="16.5" customHeight="1"/>
-    <row r="731" ht="16.5" customHeight="1"/>
-    <row r="732" ht="16.5" customHeight="1"/>
-    <row r="733" ht="16.5" customHeight="1"/>
-    <row r="734" ht="16.5" customHeight="1"/>
-    <row r="735" ht="16.5" customHeight="1"/>
-    <row r="736" ht="16.5" customHeight="1"/>
-    <row r="737" ht="16.5" customHeight="1"/>
-    <row r="738" ht="16.5" customHeight="1"/>
-    <row r="739" ht="16.5" customHeight="1"/>
-    <row r="740" ht="16.5" customHeight="1"/>
-    <row r="741" ht="16.5" customHeight="1"/>
-    <row r="742" ht="16.5" customHeight="1"/>
-    <row r="743" ht="16.5" customHeight="1"/>
-    <row r="744" ht="16.5" customHeight="1"/>
-    <row r="745" ht="16.5" customHeight="1"/>
-    <row r="746" ht="16.5" customHeight="1"/>
-    <row r="747" ht="16.5" customHeight="1"/>
-    <row r="748" ht="16.5" customHeight="1"/>
-    <row r="749" ht="16.5" customHeight="1"/>
-    <row r="750" ht="16.5" customHeight="1"/>
-    <row r="751" ht="16.5" customHeight="1"/>
-    <row r="752" ht="16.5" customHeight="1"/>
-    <row r="753" ht="16.5" customHeight="1"/>
-    <row r="754" ht="16.5" customHeight="1"/>
-    <row r="755" ht="16.5" customHeight="1"/>
-    <row r="756" ht="16.5" customHeight="1"/>
-    <row r="757" ht="16.5" customHeight="1"/>
-    <row r="758" ht="16.5" customHeight="1"/>
-    <row r="759" ht="16.5" customHeight="1"/>
-    <row r="760" ht="16.5" customHeight="1"/>
-    <row r="761" ht="16.5" customHeight="1"/>
-    <row r="762" ht="16.5" customHeight="1"/>
-    <row r="763" ht="16.5" customHeight="1"/>
-    <row r="764" ht="16.5" customHeight="1"/>
-    <row r="765" ht="16.5" customHeight="1"/>
-    <row r="766" ht="16.5" customHeight="1"/>
-    <row r="767" ht="16.5" customHeight="1"/>
-    <row r="768" ht="16.5" customHeight="1"/>
-    <row r="769" ht="16.5" customHeight="1"/>
-    <row r="770" ht="16.5" customHeight="1"/>
-    <row r="771" ht="16.5" customHeight="1"/>
-    <row r="772" ht="16.5" customHeight="1"/>
-    <row r="773" ht="16.5" customHeight="1"/>
-    <row r="774" ht="16.5" customHeight="1"/>
-    <row r="775" ht="16.5" customHeight="1"/>
-    <row r="776" ht="16.5" customHeight="1"/>
-    <row r="777" ht="16.5" customHeight="1"/>
-    <row r="778" ht="16.5" customHeight="1"/>
-    <row r="779" ht="16.5" customHeight="1"/>
-    <row r="780" ht="16.5" customHeight="1"/>
-    <row r="781" ht="16.5" customHeight="1"/>
-    <row r="782" ht="16.5" customHeight="1"/>
-    <row r="783" ht="16.5" customHeight="1"/>
-    <row r="784" ht="16.5" customHeight="1"/>
-    <row r="785" ht="16.5" customHeight="1"/>
-    <row r="786" ht="16.5" customHeight="1"/>
-    <row r="787" ht="16.5" customHeight="1"/>
-    <row r="788" ht="16.5" customHeight="1"/>
-    <row r="789" ht="16.5" customHeight="1"/>
-    <row r="790" ht="16.5" customHeight="1"/>
-    <row r="791" ht="16.5" customHeight="1"/>
-    <row r="792" ht="16.5" customHeight="1"/>
-    <row r="793" ht="16.5" customHeight="1"/>
-    <row r="794" ht="16.5" customHeight="1"/>
-    <row r="795" ht="16.5" customHeight="1"/>
-    <row r="796" ht="16.5" customHeight="1"/>
-    <row r="797" ht="16.5" customHeight="1"/>
-    <row r="798" ht="16.5" customHeight="1"/>
-    <row r="799" ht="16.5" customHeight="1"/>
-    <row r="800" ht="16.5" customHeight="1"/>
-    <row r="801" ht="16.5" customHeight="1"/>
-    <row r="802" ht="16.5" customHeight="1"/>
-    <row r="803" ht="16.5" customHeight="1"/>
-    <row r="804" ht="16.5" customHeight="1"/>
-    <row r="805" ht="16.5" customHeight="1"/>
-    <row r="806" ht="16.5" customHeight="1"/>
-    <row r="807" ht="16.5" customHeight="1"/>
-    <row r="808" ht="16.5" customHeight="1"/>
-    <row r="809" ht="16.5" customHeight="1"/>
-    <row r="810" ht="16.5" customHeight="1"/>
-    <row r="811" ht="16.5" customHeight="1"/>
-    <row r="812" ht="16.5" customHeight="1"/>
-    <row r="813" ht="16.5" customHeight="1"/>
-    <row r="814" ht="16.5" customHeight="1"/>
-    <row r="815" ht="16.5" customHeight="1"/>
-    <row r="816" ht="16.5" customHeight="1"/>
-    <row r="817" ht="16.5" customHeight="1"/>
-    <row r="818" ht="16.5" customHeight="1"/>
-    <row r="819" ht="16.5" customHeight="1"/>
-    <row r="820" ht="16.5" customHeight="1"/>
-    <row r="821" ht="16.5" customHeight="1"/>
-    <row r="822" ht="16.5" customHeight="1"/>
-    <row r="823" ht="16.5" customHeight="1"/>
-    <row r="824" ht="16.5" customHeight="1"/>
-    <row r="825" ht="16.5" customHeight="1"/>
-    <row r="826" ht="16.5" customHeight="1"/>
-    <row r="827" ht="16.5" customHeight="1"/>
-    <row r="828" ht="16.5" customHeight="1"/>
-    <row r="829" ht="16.5" customHeight="1"/>
-    <row r="830" ht="16.5" customHeight="1"/>
-    <row r="831" ht="16.5" customHeight="1"/>
-    <row r="832" ht="16.5" customHeight="1"/>
-    <row r="833" ht="16.5" customHeight="1"/>
-    <row r="834" ht="16.5" customHeight="1"/>
-    <row r="835" ht="16.5" customHeight="1"/>
-    <row r="836" ht="16.5" customHeight="1"/>
-    <row r="837" ht="16.5" customHeight="1"/>
-    <row r="838" ht="16.5" customHeight="1"/>
-    <row r="839" ht="16.5" customHeight="1"/>
-    <row r="840" ht="16.5" customHeight="1"/>
-    <row r="841" ht="16.5" customHeight="1"/>
-    <row r="842" ht="16.5" customHeight="1"/>
-    <row r="843" ht="16.5" customHeight="1"/>
-    <row r="844" ht="16.5" customHeight="1"/>
-    <row r="845" ht="16.5" customHeight="1"/>
-    <row r="846" ht="16.5" customHeight="1"/>
-    <row r="847" ht="16.5" customHeight="1"/>
-    <row r="848" ht="16.5" customHeight="1"/>
-    <row r="849" ht="16.5" customHeight="1"/>
-    <row r="850" ht="16.5" customHeight="1"/>
-    <row r="851" ht="16.5" customHeight="1"/>
-    <row r="852" ht="16.5" customHeight="1"/>
-    <row r="853" ht="16.5" customHeight="1"/>
-    <row r="854" ht="16.5" customHeight="1"/>
-    <row r="855" ht="16.5" customHeight="1"/>
-    <row r="856" ht="16.5" customHeight="1"/>
-    <row r="857" ht="16.5" customHeight="1"/>
-    <row r="858" ht="16.5" customHeight="1"/>
-    <row r="859" ht="16.5" customHeight="1"/>
-    <row r="860" ht="16.5" customHeight="1"/>
-    <row r="861" ht="16.5" customHeight="1"/>
-    <row r="862" ht="16.5" customHeight="1"/>
-    <row r="863" ht="16.5" customHeight="1"/>
-    <row r="864" ht="16.5" customHeight="1"/>
-    <row r="865" ht="16.5" customHeight="1"/>
-    <row r="866" ht="16.5" customHeight="1"/>
-    <row r="867" ht="16.5" customHeight="1"/>
-    <row r="868" ht="16.5" customHeight="1"/>
-    <row r="869" ht="16.5" customHeight="1"/>
-    <row r="870" ht="16.5" customHeight="1"/>
-    <row r="871" ht="16.5" customHeight="1"/>
-    <row r="872" ht="16.5" customHeight="1"/>
-    <row r="873" ht="16.5" customHeight="1"/>
-    <row r="874" ht="16.5" customHeight="1"/>
-    <row r="875" ht="16.5" customHeight="1"/>
-    <row r="876" ht="16.5" customHeight="1"/>
-    <row r="877" ht="16.5" customHeight="1"/>
-    <row r="878" ht="16.5" customHeight="1"/>
-    <row r="879" ht="16.5" customHeight="1"/>
-    <row r="880" ht="16.5" customHeight="1"/>
-    <row r="881" ht="16.5" customHeight="1"/>
-    <row r="882" ht="16.5" customHeight="1"/>
-    <row r="883" ht="16.5" customHeight="1"/>
-    <row r="884" ht="16.5" customHeight="1"/>
-    <row r="885" ht="16.5" customHeight="1"/>
-    <row r="886" ht="16.5" customHeight="1"/>
-    <row r="887" ht="16.5" customHeight="1"/>
-    <row r="888" ht="16.5" customHeight="1"/>
-    <row r="889" ht="16.5" customHeight="1"/>
-    <row r="890" ht="16.5" customHeight="1"/>
-    <row r="891" ht="16.5" customHeight="1"/>
-    <row r="892" ht="16.5" customHeight="1"/>
-    <row r="893" ht="16.5" customHeight="1"/>
-    <row r="894" ht="16.5" customHeight="1"/>
-    <row r="895" ht="16.5" customHeight="1"/>
-    <row r="896" ht="16.5" customHeight="1"/>
-    <row r="897" ht="16.5" customHeight="1"/>
-    <row r="898" ht="16.5" customHeight="1"/>
-    <row r="899" ht="16.5" customHeight="1"/>
-    <row r="900" ht="16.5" customHeight="1"/>
-    <row r="901" ht="16.5" customHeight="1"/>
-    <row r="902" ht="16.5" customHeight="1"/>
-    <row r="903" ht="16.5" customHeight="1"/>
-    <row r="904" ht="16.5" customHeight="1"/>
-    <row r="905" ht="16.5" customHeight="1"/>
-    <row r="906" ht="16.5" customHeight="1"/>
-    <row r="907" ht="16.5" customHeight="1"/>
-    <row r="908" ht="16.5" customHeight="1"/>
-    <row r="909" ht="16.5" customHeight="1"/>
-    <row r="910" ht="16.5" customHeight="1"/>
-    <row r="911" ht="16.5" customHeight="1"/>
-    <row r="912" ht="16.5" customHeight="1"/>
-    <row r="913" ht="16.5" customHeight="1"/>
-    <row r="914" ht="16.5" customHeight="1"/>
-    <row r="915" ht="16.5" customHeight="1"/>
-    <row r="916" ht="16.5" customHeight="1"/>
-    <row r="917" ht="16.5" customHeight="1"/>
-    <row r="918" ht="16.5" customHeight="1"/>
-    <row r="919" ht="16.5" customHeight="1"/>
-    <row r="920" ht="16.5" customHeight="1"/>
-    <row r="921" ht="16.5" customHeight="1"/>
-    <row r="922" ht="16.5" customHeight="1"/>
-    <row r="923" ht="16.5" customHeight="1"/>
-    <row r="924" ht="16.5" customHeight="1"/>
-    <row r="925" ht="16.5" customHeight="1"/>
-    <row r="926" ht="16.5" customHeight="1"/>
-    <row r="927" ht="16.5" customHeight="1"/>
-    <row r="928" ht="16.5" customHeight="1"/>
-    <row r="929" ht="16.5" customHeight="1"/>
-    <row r="930" ht="16.5" customHeight="1"/>
-    <row r="931" ht="16.5" customHeight="1"/>
-    <row r="932" ht="16.5" customHeight="1"/>
-    <row r="933" ht="16.5" customHeight="1"/>
-    <row r="934" ht="16.5" customHeight="1"/>
-    <row r="935" ht="16.5" customHeight="1"/>
-    <row r="936" ht="16.5" customHeight="1"/>
-    <row r="937" ht="16.5" customHeight="1"/>
-    <row r="938" ht="16.5" customHeight="1"/>
-    <row r="939" ht="16.5" customHeight="1"/>
-    <row r="940" ht="16.5" customHeight="1"/>
-    <row r="941" ht="16.5" customHeight="1"/>
-    <row r="942" ht="16.5" customHeight="1"/>
-    <row r="943" ht="16.5" customHeight="1"/>
-    <row r="944" ht="16.5" customHeight="1"/>
-    <row r="945" ht="16.5" customHeight="1"/>
-    <row r="946" ht="16.5" customHeight="1"/>
-    <row r="947" ht="16.5" customHeight="1"/>
-    <row r="948" ht="16.5" customHeight="1"/>
-    <row r="949" ht="16.5" customHeight="1"/>
-    <row r="950" ht="16.5" customHeight="1"/>
-    <row r="951" ht="16.5" customHeight="1"/>
-    <row r="952" ht="16.5" customHeight="1"/>
-    <row r="953" ht="16.5" customHeight="1"/>
-    <row r="954" ht="16.5" customHeight="1"/>
-    <row r="955" ht="16.5" customHeight="1"/>
-    <row r="956" ht="16.5" customHeight="1"/>
-    <row r="957" ht="16.5" customHeight="1"/>
-    <row r="958" ht="16.5" customHeight="1"/>
-    <row r="959" ht="16.5" customHeight="1"/>
-    <row r="960" ht="16.5" customHeight="1"/>
-    <row r="961" ht="16.5" customHeight="1"/>
-    <row r="962" ht="16.5" customHeight="1"/>
-    <row r="963" ht="16.5" customHeight="1"/>
-    <row r="964" ht="16.5" customHeight="1"/>
-    <row r="965" ht="16.5" customHeight="1"/>
-    <row r="966" ht="16.5" customHeight="1"/>
-    <row r="967" ht="16.5" customHeight="1"/>
-    <row r="968" ht="16.5" customHeight="1"/>
-    <row r="969" ht="16.5" customHeight="1"/>
-    <row r="970" ht="16.5" customHeight="1"/>
-    <row r="971" ht="16.5" customHeight="1"/>
-    <row r="972" ht="16.5" customHeight="1"/>
-    <row r="973" ht="16.5" customHeight="1"/>
-    <row r="974" ht="16.5" customHeight="1"/>
-    <row r="975" ht="16.5" customHeight="1"/>
-    <row r="976" ht="16.5" customHeight="1"/>
-    <row r="977" ht="16.5" customHeight="1"/>
-    <row r="978" ht="16.5" customHeight="1"/>
-    <row r="979" ht="16.5" customHeight="1"/>
-    <row r="980" ht="16.5" customHeight="1"/>
-    <row r="981" ht="16.5" customHeight="1"/>
-    <row r="982" ht="16.5" customHeight="1"/>
-    <row r="983" ht="16.5" customHeight="1"/>
-    <row r="984" ht="16.5" customHeight="1"/>
-    <row r="985" ht="16.5" customHeight="1"/>
-    <row r="986" ht="16.5" customHeight="1"/>
-    <row r="987" ht="16.5" customHeight="1"/>
-    <row r="988" ht="16.5" customHeight="1"/>
-    <row r="989" ht="16.5" customHeight="1"/>
-    <row r="990" ht="16.5" customHeight="1"/>
-    <row r="991" ht="16.5" customHeight="1"/>
-    <row r="992" ht="16.5" customHeight="1"/>
-    <row r="993" ht="16.5" customHeight="1"/>
-    <row r="994" ht="16.5" customHeight="1"/>
-    <row r="995" ht="16.5" customHeight="1"/>
-    <row r="996" ht="16.5" customHeight="1"/>
-    <row r="997" ht="16.5" customHeight="1"/>
-    <row r="998" ht="16.5" customHeight="1"/>
-    <row r="999" ht="16.5" customHeight="1"/>
-    <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
